--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aula E2\Desktop\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4545" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="1"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Enfermedades" sheetId="3" r:id="rId3"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>Nombre</t>
   </si>
@@ -42,9 +33,15 @@
     <t>Alberto</t>
   </si>
   <si>
+    <t>Hombre</t>
+  </si>
+  <si>
     <t>Bere</t>
   </si>
   <si>
+    <t>Muejer</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
@@ -57,41 +54,325 @@
     <t>Fatima</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Muejer</t>
+    <t>Sintoma 1</t>
+  </si>
+  <si>
+    <t>Sintoma 2</t>
+  </si>
+  <si>
+    <t>Sintoma 3</t>
+  </si>
+  <si>
+    <t>Enfermedad 1</t>
+  </si>
+  <si>
+    <t>Enfermedad 2</t>
+  </si>
+  <si>
+    <t>Lugo Fany</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Martinez Daniela</t>
+  </si>
+  <si>
+    <t>Gonzalez Daniela</t>
+  </si>
+  <si>
+    <t>Camacho Ana</t>
+  </si>
+  <si>
+    <t>Camacho Alberto</t>
+  </si>
+  <si>
+    <t>Dante Hugo</t>
+  </si>
+  <si>
+    <t>Martinez Paco</t>
+  </si>
+  <si>
+    <t>Fernandez Eli</t>
+  </si>
+  <si>
+    <t>Oropeza Jaz</t>
+  </si>
+  <si>
+    <t>Alvarez Bere</t>
+  </si>
+  <si>
+    <t>Martinez Gaby</t>
+  </si>
+  <si>
+    <t>Hernandez Krilin</t>
+  </si>
+  <si>
+    <t>Hernandez Carlos</t>
+  </si>
+  <si>
+    <t>Dante Jaz</t>
+  </si>
+  <si>
+    <t>Jimenez Nadia</t>
+  </si>
+  <si>
+    <t>Benitez Gaby</t>
+  </si>
+  <si>
+    <t>Benitez Mauro</t>
+  </si>
+  <si>
+    <t>Escamilla Nadia</t>
+  </si>
+  <si>
+    <t>Piedras Eli</t>
+  </si>
+  <si>
+    <t>Benitez Gera</t>
+  </si>
+  <si>
+    <t>Hernandez Paty</t>
+  </si>
+  <si>
+    <t>Lugo Paty</t>
+  </si>
+  <si>
+    <t>Alvarez Raul</t>
+  </si>
+  <si>
+    <t>Camacho Paco</t>
+  </si>
+  <si>
+    <t>Benitez Juan</t>
+  </si>
+  <si>
+    <t>Camacho Fabian</t>
+  </si>
+  <si>
+    <t>Dante Paco</t>
+  </si>
+  <si>
+    <t>Lugo Juan</t>
+  </si>
+  <si>
+    <t>Dante Helen</t>
+  </si>
+  <si>
+    <t>Gonzalez Gera</t>
+  </si>
+  <si>
+    <t>Jimenez Raul</t>
+  </si>
+  <si>
+    <t>Alvarez Beto</t>
+  </si>
+  <si>
+    <t>Gonzalez Rosa</t>
+  </si>
+  <si>
+    <t>Gonzalez Raul</t>
+  </si>
+  <si>
+    <t>Escamilla Gera</t>
+  </si>
+  <si>
+    <t>Piedras Fany</t>
+  </si>
+  <si>
+    <t>Fernandez Fabian</t>
+  </si>
+  <si>
+    <t>Fernandez Daniel</t>
+  </si>
+  <si>
+    <t>Jimenez Juan</t>
+  </si>
+  <si>
+    <t>Jimenez Daniel</t>
+  </si>
+  <si>
+    <t>Gonzalez Gaby</t>
+  </si>
+  <si>
+    <t>Jimenez Karen</t>
+  </si>
+  <si>
+    <t>Martinez Karen</t>
+  </si>
+  <si>
+    <t>Gonzalez Juan</t>
+  </si>
+  <si>
+    <t>Oropeza Maria</t>
+  </si>
+  <si>
+    <t>Fernandez Beto</t>
+  </si>
+  <si>
+    <t>Piedras Maria</t>
+  </si>
+  <si>
+    <t>Jimenez Alberto</t>
+  </si>
+  <si>
+    <t>Jimenez Fabian</t>
+  </si>
+  <si>
+    <t>Camacho Eli</t>
+  </si>
+  <si>
+    <t>Gonzalez Mauro</t>
+  </si>
+  <si>
+    <t>Benitez Raul</t>
+  </si>
+  <si>
+    <t>Oropeza Daniel</t>
+  </si>
+  <si>
+    <t>Fernandez Maria</t>
+  </si>
+  <si>
+    <t>Escamilla Eduardo</t>
+  </si>
+  <si>
+    <t>Camacho Eduardo</t>
+  </si>
+  <si>
+    <t>Alvarez Olga</t>
+  </si>
+  <si>
+    <t>Fernandez Krilin</t>
+  </si>
+  <si>
+    <t>Lugo Hugo</t>
+  </si>
+  <si>
+    <t>Benitez Fany</t>
+  </si>
+  <si>
+    <t>Dante Krilin</t>
+  </si>
+  <si>
+    <t>Alvarez Rosa</t>
+  </si>
+  <si>
+    <t>Jimenez Gaby</t>
+  </si>
+  <si>
+    <t>Dante Bere</t>
+  </si>
+  <si>
+    <t>Jimenez Eduardo</t>
+  </si>
+  <si>
+    <t>Benitez Jaz</t>
+  </si>
+  <si>
+    <t>Alvarez Ana</t>
+  </si>
+  <si>
+    <t>Oropeza Raul</t>
+  </si>
+  <si>
+    <t>Benitez Rosa</t>
+  </si>
+  <si>
+    <t>Hernandez Orlando</t>
+  </si>
+  <si>
+    <t>Camacho Karen</t>
+  </si>
+  <si>
+    <t>Escamilla Raul</t>
+  </si>
+  <si>
+    <t>Martinez Paty</t>
+  </si>
+  <si>
+    <t>Alvarez Nadia</t>
+  </si>
+  <si>
+    <t>Camacho Nadia</t>
+  </si>
+  <si>
+    <t>Fernandez Olga</t>
+  </si>
+  <si>
+    <t>Jimenez Eli</t>
+  </si>
+  <si>
+    <t>Alvarez Daniel</t>
+  </si>
+  <si>
+    <t>Martinez Orlando</t>
+  </si>
+  <si>
+    <t>Fernandez Bere</t>
+  </si>
+  <si>
+    <t>Gonzalez Orlando</t>
+  </si>
+  <si>
+    <t>Piedras Ana</t>
+  </si>
+  <si>
+    <t>Escamilla Helen</t>
+  </si>
+  <si>
+    <t>Piedras Bere</t>
+  </si>
+  <si>
+    <t>Hernandez Olga</t>
+  </si>
+  <si>
+    <t>Gonzalez Paco</t>
+  </si>
+  <si>
+    <t>Dante Gera</t>
+  </si>
+  <si>
+    <t>Martinez Carla</t>
+  </si>
+  <si>
+    <t>Escamilla Alberto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.3499862666707358"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,25 +387,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -390,16 +663,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F10"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A4:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,104 +690,2149 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>23</v>
       </c>
       <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F9" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D10" t="n">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4545" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
   <si>
     <t>Nombre</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Indefinido</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>sensor</t>
   </si>
 </sst>
 </file>
@@ -417,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F10"/>
+  <dimension ref="C4:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,94 +442,234 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9">
         <v>67</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
         <v>76</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
-        <v>78</v>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -545,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:D102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
